--- a/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9941439861373852</v>
+        <v>0.9941439861373853</v>
       </c>
       <c r="D13">
-        <v>0.9882924057559366</v>
+        <v>0.9882924057559362</v>
       </c>
       <c r="E13">
         <v>0.9911795276129675</v>
       </c>
       <c r="F13">
-        <v>0.9941439861373852</v>
+        <v>0.9941439861373853</v>
       </c>
       <c r="G13">
-        <v>0.9895893094430471</v>
+        <v>0.9895893094430468</v>
       </c>
       <c r="H13">
         <v>0.9872412484742678</v>
@@ -970,16 +970,16 @@
         <v>0.9937465520539611</v>
       </c>
       <c r="J13">
-        <v>0.9882924057559366</v>
+        <v>0.9882924057559362</v>
       </c>
       <c r="K13">
-        <v>0.9897359666844521</v>
+        <v>0.9897359666844519</v>
       </c>
       <c r="L13">
         <v>0.9919399764109186</v>
       </c>
       <c r="M13">
-        <v>0.9906988382462609</v>
+        <v>0.9906988382462608</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1037,7 +1037,7 @@
         <v>1.130027053825561</v>
       </c>
       <c r="E15">
-        <v>0.9669827382172723</v>
+        <v>0.9669827382172724</v>
       </c>
       <c r="F15">
         <v>0.9714474568022929</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.009091867475396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.060443440083739</v>
+      </c>
+      <c r="D16">
+        <v>1.234423402731494</v>
+      </c>
+      <c r="E16">
+        <v>1.000829744036772</v>
+      </c>
+      <c r="F16">
+        <v>1.060443440083739</v>
+      </c>
+      <c r="G16">
+        <v>0.8587410004033036</v>
+      </c>
+      <c r="H16">
+        <v>1.451569371944928</v>
+      </c>
+      <c r="I16">
+        <v>0.962324404813809</v>
+      </c>
+      <c r="J16">
+        <v>1.234423402731494</v>
+      </c>
+      <c r="K16">
+        <v>1.117626573384134</v>
+      </c>
+      <c r="L16">
+        <v>1.089035006733936</v>
+      </c>
+      <c r="M16">
+        <v>1.094721894002341</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.060443440083739</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.213771999999995</v>
+        <v>1.060443440083739</v>
       </c>
       <c r="D10">
-        <v>1.523624000000005</v>
+        <v>1.234423402731494</v>
       </c>
       <c r="E10">
-        <v>0.4189959999999995</v>
+        <v>1.000829744036772</v>
       </c>
       <c r="F10">
-        <v>2.213771999999995</v>
+        <v>1.060443440083739</v>
       </c>
       <c r="G10">
-        <v>1.099428000000001</v>
+        <v>0.8587410004033036</v>
       </c>
       <c r="H10">
-        <v>0.140872</v>
+        <v>1.451569371944928</v>
       </c>
       <c r="I10">
-        <v>0.7519960000000013</v>
+        <v>0.962324404813809</v>
       </c>
       <c r="J10">
-        <v>1.523624000000005</v>
+        <v>1.234423402731494</v>
       </c>
       <c r="K10">
-        <v>0.9713100000000023</v>
+        <v>1.117626573384134</v>
       </c>
       <c r="L10">
-        <v>1.592540999999999</v>
+        <v>1.089035006733936</v>
       </c>
       <c r="M10">
-        <v>1.024781333333334</v>
+        <v>1.094721894002341</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.434450000000003</v>
+        <v>1.115807572074335</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>2.463641727999528</v>
       </c>
       <c r="E11">
-        <v>0.45</v>
+        <v>0.4348189935736123</v>
       </c>
       <c r="F11">
-        <v>3.434450000000003</v>
+        <v>1.115807572074335</v>
       </c>
       <c r="G11">
-        <v>0.3880625</v>
+        <v>1.678631161569662</v>
       </c>
       <c r="H11">
-        <v>0.22</v>
+        <v>0.07819509279137359</v>
       </c>
       <c r="I11">
-        <v>0.9838875000000004</v>
+        <v>0.617226567013638</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>2.463641727999528</v>
       </c>
       <c r="K11">
-        <v>0.23</v>
+        <v>1.44923036078657</v>
       </c>
       <c r="L11">
-        <v>1.832225000000002</v>
+        <v>1.282518966430453</v>
       </c>
       <c r="M11">
-        <v>0.9144000000000005</v>
+        <v>1.064720185837025</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.385447859916797</v>
+        <v>1.10941712867094</v>
       </c>
       <c r="D12">
-        <v>0.4233949770752028</v>
+        <v>2.469229007944313</v>
       </c>
       <c r="E12">
-        <v>0.6843422908416021</v>
+        <v>0.434856367215113</v>
       </c>
       <c r="F12">
-        <v>2.385447859916797</v>
+        <v>1.10941712867094</v>
       </c>
       <c r="G12">
-        <v>0.6451964120064015</v>
+        <v>1.682200625381976</v>
       </c>
       <c r="H12">
-        <v>0.5584868202496011</v>
+        <v>0.07778761664708411</v>
       </c>
       <c r="I12">
-        <v>0.9979515110399984</v>
+        <v>0.6163449794411291</v>
       </c>
       <c r="J12">
-        <v>0.4233949770752028</v>
+        <v>2.469229007944313</v>
       </c>
       <c r="K12">
-        <v>0.5538686339584025</v>
+        <v>1.452042687579713</v>
       </c>
       <c r="L12">
-        <v>1.4696582469376</v>
+        <v>1.280729908125326</v>
       </c>
       <c r="M12">
-        <v>0.9491366451882671</v>
+        <v>1.064972620883426</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9941439861373853</v>
+        <v>1.114252735605906</v>
       </c>
       <c r="D13">
-        <v>0.9882924057559362</v>
+        <v>2.463901420304297</v>
       </c>
       <c r="E13">
-        <v>0.9911795276129675</v>
+        <v>0.4349534686093818</v>
       </c>
       <c r="F13">
-        <v>0.9941439861373853</v>
+        <v>1.114252735605906</v>
       </c>
       <c r="G13">
-        <v>0.9895893094430468</v>
+        <v>1.679481002735638</v>
       </c>
       <c r="H13">
-        <v>0.9872412484742678</v>
+        <v>0.07810873119124007</v>
       </c>
       <c r="I13">
-        <v>0.9937465520539611</v>
+        <v>0.6172841120249255</v>
       </c>
       <c r="J13">
-        <v>0.9882924057559362</v>
+        <v>2.463901420304297</v>
       </c>
       <c r="K13">
-        <v>0.9897359666844519</v>
+        <v>1.449427444456839</v>
       </c>
       <c r="L13">
-        <v>0.9919399764109186</v>
+        <v>1.281840090031373</v>
       </c>
       <c r="M13">
-        <v>0.9906988382462608</v>
+        <v>1.064663578411898</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9778878214107</v>
+        <v>2.213771999999995</v>
       </c>
       <c r="D14">
-        <v>1.081470585621645</v>
+        <v>1.523624000000005</v>
       </c>
       <c r="E14">
-        <v>0.9693686220836593</v>
+        <v>0.4189959999999995</v>
       </c>
       <c r="F14">
-        <v>0.9778878214107</v>
+        <v>2.213771999999995</v>
       </c>
       <c r="G14">
-        <v>1.004877268752715</v>
+        <v>1.099428000000001</v>
       </c>
       <c r="H14">
-        <v>1.045522839282462</v>
+        <v>0.140872</v>
       </c>
       <c r="I14">
-        <v>0.9714526093934206</v>
+        <v>0.7519960000000013</v>
       </c>
       <c r="J14">
-        <v>1.081470585621645</v>
+        <v>1.523624000000005</v>
       </c>
       <c r="K14">
-        <v>1.025419603852652</v>
+        <v>0.9713100000000023</v>
       </c>
       <c r="L14">
-        <v>1.001653712631676</v>
+        <v>1.592540999999999</v>
       </c>
       <c r="M14">
-        <v>1.008429957757433</v>
+        <v>1.024781333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9714474568022929</v>
+        <v>3.434450000000003</v>
       </c>
       <c r="D15">
-        <v>1.130027053825561</v>
+        <v>0.01</v>
       </c>
       <c r="E15">
-        <v>0.9669827382172724</v>
+        <v>0.45</v>
       </c>
       <c r="F15">
-        <v>0.9714474568022929</v>
+        <v>3.434450000000003</v>
       </c>
       <c r="G15">
-        <v>1.040957142282352</v>
+        <v>0.3880625</v>
       </c>
       <c r="H15">
-        <v>0.9786157634602403</v>
+        <v>0.22</v>
       </c>
       <c r="I15">
-        <v>0.9665210502646561</v>
+        <v>0.9838875000000004</v>
       </c>
       <c r="J15">
-        <v>1.130027053825561</v>
+        <v>0.01</v>
       </c>
       <c r="K15">
-        <v>1.048504896021416</v>
+        <v>0.23</v>
       </c>
       <c r="L15">
-        <v>1.009976176411855</v>
+        <v>1.832225000000002</v>
       </c>
       <c r="M15">
-        <v>1.009091867475396</v>
+        <v>0.9144000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.060443440083739</v>
+        <v>2.385447859916797</v>
       </c>
       <c r="D16">
-        <v>1.234423402731494</v>
+        <v>0.4233949770752028</v>
       </c>
       <c r="E16">
-        <v>1.000829744036772</v>
+        <v>0.6843422908416021</v>
       </c>
       <c r="F16">
-        <v>1.060443440083739</v>
+        <v>2.385447859916797</v>
       </c>
       <c r="G16">
-        <v>0.8587410004033036</v>
+        <v>0.6451964120064015</v>
       </c>
       <c r="H16">
-        <v>1.451569371944928</v>
+        <v>0.5584868202496011</v>
       </c>
       <c r="I16">
-        <v>0.962324404813809</v>
+        <v>0.9979515110399984</v>
       </c>
       <c r="J16">
-        <v>1.234423402731494</v>
+        <v>0.4233949770752028</v>
       </c>
       <c r="K16">
-        <v>1.117626573384134</v>
+        <v>0.5538686339584025</v>
       </c>
       <c r="L16">
-        <v>1.089035006733936</v>
+        <v>1.4696582469376</v>
       </c>
       <c r="M16">
-        <v>1.094721894002341</v>
+        <v>0.9491366451882671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9941439861373853</v>
+      </c>
+      <c r="D17">
+        <v>0.9882924057559362</v>
+      </c>
+      <c r="E17">
+        <v>0.9911795276129675</v>
+      </c>
+      <c r="F17">
+        <v>0.9941439861373853</v>
+      </c>
+      <c r="G17">
+        <v>0.9895893094430468</v>
+      </c>
+      <c r="H17">
+        <v>0.9872412484742678</v>
+      </c>
+      <c r="I17">
+        <v>0.9937465520539611</v>
+      </c>
+      <c r="J17">
+        <v>0.9882924057559362</v>
+      </c>
+      <c r="K17">
+        <v>0.9897359666844519</v>
+      </c>
+      <c r="L17">
+        <v>0.9919399764109186</v>
+      </c>
+      <c r="M17">
+        <v>0.9906988382462608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9778878214107</v>
+      </c>
+      <c r="D18">
+        <v>1.081470585621645</v>
+      </c>
+      <c r="E18">
+        <v>0.9693686220836593</v>
+      </c>
+      <c r="F18">
+        <v>0.9778878214107</v>
+      </c>
+      <c r="G18">
+        <v>1.004877268752715</v>
+      </c>
+      <c r="H18">
+        <v>1.045522839282462</v>
+      </c>
+      <c r="I18">
+        <v>0.9714526093934206</v>
+      </c>
+      <c r="J18">
+        <v>1.081470585621645</v>
+      </c>
+      <c r="K18">
+        <v>1.025419603852652</v>
+      </c>
+      <c r="L18">
+        <v>1.001653712631676</v>
+      </c>
+      <c r="M18">
+        <v>1.008429957757433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9714474568022929</v>
+      </c>
+      <c r="D19">
+        <v>1.130027053825561</v>
+      </c>
+      <c r="E19">
+        <v>0.9669827382172724</v>
+      </c>
+      <c r="F19">
+        <v>0.9714474568022929</v>
+      </c>
+      <c r="G19">
+        <v>1.040957142282352</v>
+      </c>
+      <c r="H19">
+        <v>0.9786157634602403</v>
+      </c>
+      <c r="I19">
+        <v>0.9665210502646561</v>
+      </c>
+      <c r="J19">
+        <v>1.130027053825561</v>
+      </c>
+      <c r="K19">
+        <v>1.048504896021416</v>
+      </c>
+      <c r="L19">
+        <v>1.009976176411855</v>
+      </c>
+      <c r="M19">
+        <v>1.009091867475396</v>
       </c>
     </row>
   </sheetData>
